--- a/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
+++ b/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\内部定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46702EA0-1894-4233-A70E-D5587A965BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB99646-B466-44E2-89B4-51EC99698BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="1770" yWindow="0" windowWidth="15645" windowHeight="9540" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
   <dimension ref="B2:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3014,21 +3014,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3199,32 +3184,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3241,4 +3216,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
+++ b/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\内部定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB99646-B466-44E2-89B4-51EC99698BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E55CC7-5E23-4153-AC49-B391E61FE9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="0" windowWidth="15645" windowHeight="9540" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="114">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -686,6 +686,41 @@
   </si>
   <si>
     <t>TaskRegist.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録が完了したときの画面</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果の操作モデル</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1103,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G57"/>
+  <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1159,7 +1194,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B57" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B58" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1657,10 +1692,18 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="C31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1838,29 +1881,33 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="1">
+      <c r="B42" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -1874,12 +1921,8 @@
       <c r="D44" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -1894,10 +1937,10 @@
         <v>104</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -1912,8 +1955,12 @@
       <c r="D46" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -1927,8 +1974,8 @@
       <c r="D47" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -1936,8 +1983,12 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1947,18 +1998,10 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -1973,10 +2016,10 @@
         <v>38</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -1992,10 +2035,10 @@
         <v>38</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -2011,10 +2054,10 @@
         <v>38</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -2030,10 +2073,10 @@
         <v>38</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -2049,10 +2092,10 @@
         <v>38</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2068,10 +2111,10 @@
         <v>38</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2087,10 +2130,10 @@
         <v>38</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -2106,12 +2149,31 @@
         <v>38</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="1"/>
+      <c r="G58" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3014,6 +3076,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3184,22 +3261,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3216,29 +3303,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
+++ b/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\内部定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E55CC7-5E23-4153-AC49-B391E61FE9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169C765A-88DB-4AE9-9DDA-48E4B2CF5372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="0" windowWidth="15645" windowHeight="9540" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="4560" yWindow="0" windowWidth="15645" windowHeight="9540" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="116">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -720,6 +720,20 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果に対するCSS</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -773,7 +787,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -796,13 +810,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,6 +847,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G58"/>
+  <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2174,6 +2202,17 @@
         <v>53</v>
       </c>
       <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3076,21 +3115,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3261,32 +3285,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3303,4 +3317,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
+++ b/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\内部定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169C765A-88DB-4AE9-9DDA-48E4B2CF5372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BA2E28-E7FC-4BA5-8FE2-E186DB52A100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="0" windowWidth="15645" windowHeight="9540" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="8670" yWindow="1125" windowWidth="10230" windowHeight="9285" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="117">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -735,6 +735,10 @@
     <rPh sb="3" eb="4">
       <t>タイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheerServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1168,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1527,7 +1531,7 @@
         <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>71</v>
@@ -3115,6 +3119,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3285,22 +3304,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3317,29 +3346,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
+++ b/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\内部定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BA2E28-E7FC-4BA5-8FE2-E186DB52A100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31CC295-B057-4609-8222-4B612EB9705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8670" yWindow="1125" windowWidth="10230" windowHeight="9285" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="9705" yWindow="855" windowWidth="10230" windowHeight="9285" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="120">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -739,6 +739,21 @@
   </si>
   <si>
     <t>CheerServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskListsServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応援画像メッセージ</t>
+    <rPh sb="0" eb="4">
+      <t>オウエンガゾウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1172,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1531,10 +1546,10 @@
         <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1544,9 +1559,15 @@
         <v>19</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -3119,21 +3140,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3304,32 +3310,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3346,4 +3342,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
+++ b/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\内部定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31CC295-B057-4609-8222-4B612EB9705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DEBB98-7735-4B54-8D70-0F2C21098136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9705" yWindow="855" windowWidth="10230" windowHeight="9285" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="122">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -753,6 +753,20 @@
     <t>応援画像メッセージ</t>
     <rPh sb="0" eb="4">
       <t>オウエンガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskDeleteServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクの削除用</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1185,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G59"/>
+  <dimension ref="B2:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1241,7 +1255,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B58" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B59" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1558,7 +1572,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D21" s="6" t="s">
         <v>59</v>
       </c>
@@ -1571,40 +1587,40 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>77</v>
+      <c r="E23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1620,10 +1636,10 @@
         <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1632,17 +1648,17 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1651,17 +1667,17 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1677,47 +1693,47 @@
         <v>73</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1733,10 +1749,10 @@
         <v>73</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1745,17 +1761,17 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1764,10 +1780,18 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="C32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1775,18 +1799,10 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1801,10 +1817,10 @@
         <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1820,10 +1836,10 @@
         <v>25</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1839,10 +1855,10 @@
         <v>25</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1851,10 +1867,18 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="C37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1862,18 +1886,10 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1888,10 +1904,10 @@
         <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1907,10 +1923,10 @@
         <v>25</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1926,56 +1942,60 @@
         <v>25</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="6">
+      <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B43" s="6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -1989,12 +2009,8 @@
       <c r="D45" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2009,10 +2025,10 @@
         <v>104</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -2027,8 +2043,12 @@
       <c r="D47" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2042,8 +2062,8 @@
       <c r="D48" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2051,8 +2071,12 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="C49" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2062,18 +2086,10 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2088,10 +2104,10 @@
         <v>38</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -2107,10 +2123,10 @@
         <v>38</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -2126,10 +2142,10 @@
         <v>38</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -2145,10 +2161,10 @@
         <v>38</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2164,10 +2180,10 @@
         <v>38</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2183,10 +2199,10 @@
         <v>38</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -2202,10 +2218,10 @@
         <v>38</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -2221,21 +2237,40 @@
         <v>38</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="D59" s="6" t="s">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D60" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3140,6 +3175,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3310,22 +3360,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3342,29 +3402,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
+++ b/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\内部定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DEBB98-7735-4B54-8D70-0F2C21098136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B42D6D-619C-4C68-80E6-7215529BDA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="855" windowWidth="10230" windowHeight="9285" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="3945" yWindow="2655" windowWidth="15375" windowHeight="9270" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="124">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -767,6 +767,17 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customSet.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタムセット設定ページのハンバーガーメニューボタン</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1201,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2062,8 +2073,12 @@
       <c r="D48" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -3175,21 +3190,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3360,32 +3360,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3402,4 +3392,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
+++ b/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B42D6D-619C-4C68-80E6-7215529BDA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D14D41-3B41-46D2-8972-A4EF31955EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="2655" windowWidth="15375" windowHeight="9270" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="3240" yWindow="1650" windowWidth="15375" windowHeight="9270" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="122">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -767,17 +767,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>customSet.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタムセット設定ページのハンバーガーメニューボタン</t>
-    <rPh sb="7" eb="9">
-      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1212,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2073,12 +2062,8 @@
       <c r="D48" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -3190,6 +3175,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3360,22 +3360,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3392,29 +3402,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
+++ b/doc/内部定義書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\内部定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D14D41-3B41-46D2-8972-A4EF31955EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69B8F8E-8D60-4A86-A0A6-0BF7FFFE88F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1650" windowWidth="15375" windowHeight="9270" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="4380" yWindow="570" windowWidth="15855" windowHeight="10170" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="127">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -767,6 +767,47 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cheerAfter.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>褒めるポップアップの遷移後の画面</t>
+    <rPh sb="0" eb="1">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>センイゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成時の褒めるポップアップ</t>
+    <rPh sb="0" eb="3">
+      <t>タッセイジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheerPopupServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>褒めるポップアップに関するServlet</t>
+    <rPh sb="0" eb="1">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -820,7 +861,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -841,17 +882,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -882,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1199,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G60"/>
+  <dimension ref="B2:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1255,7 +1285,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B59" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B63" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1606,97 +1636,73 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="1">
+      <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="1"/>
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="1"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="1"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="1"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>81</v>
+      <c r="E27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1712,28 +1718,29 @@
         <v>73</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
-        <v>26</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="5" t="s">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1742,17 +1749,17 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1768,10 +1775,10 @@
         <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1780,29 +1787,36 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1810,17 +1824,17 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>25</v>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1829,17 +1843,17 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>25</v>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1848,17 +1862,17 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>25</v>
+      <c r="C36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1867,18 +1881,10 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1886,10 +1892,18 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="C38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1904,10 +1918,10 @@
         <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1923,10 +1937,10 @@
         <v>25</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1942,10 +1956,10 @@
         <v>25</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1961,41 +1975,49 @@
         <v>25</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="6">
+      <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="C44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2003,68 +2025,68 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="C45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="1">
+      <c r="B46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>104</v>
+      <c r="C46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>106</v>
+      <c r="C47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="1">
+    <row r="48" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
@@ -2077,8 +2099,12 @@
       <c r="D49" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="E49" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2086,10 +2112,18 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="C50" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2097,18 +2131,14 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="C51" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2116,18 +2146,14 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="C52" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -2135,18 +2161,10 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2161,10 +2179,10 @@
         <v>38</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2180,10 +2198,10 @@
         <v>38</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2199,10 +2217,10 @@
         <v>38</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -2218,10 +2236,10 @@
         <v>38</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -2237,10 +2255,10 @@
         <v>38</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -2256,21 +2274,85 @@
         <v>38</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="D60" s="6" t="s">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B63" s="6">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3175,21 +3257,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3360,32 +3427,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3402,4 +3459,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>